--- a/Квантовая физика/5.2.2 Изучение спектров атомов водорода и дейтерия/Для градуировки.xlsx
+++ b/Квантовая физика/5.2.2 Изучение спектров атомов водорода и дейтерия/Для градуировки.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glebm\OneDrive\Рабочий стол\programming\MIPT-physics-labs\Квантовая физика\5.2.2 Изучение спектров атомов водорода и дейтерия\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Глеб\Desktop\Лабы\Квантовая физика\5.2.2 Изучение спектров атомов водорода и дейтерия\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FD14F0-CDFC-4419-B589-09C65FD9A137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1953F92-4EB7-4A57-80E8-6302588784FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>К1</t>
   </si>
   <si>
     <t>К2</t>
   </si>
+  <si>
+    <t>ϕ</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>Å</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -348,15 +365,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -369,8 +400,11 @@
       <c r="H2">
         <v>6907</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -384,7 +418,7 @@
         <v>6234</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -398,7 +432,7 @@
         <v>5791</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -412,7 +446,7 @@
         <v>5770</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -426,7 +460,7 @@
         <v>5461</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -437,10 +471,10 @@
         <v>1506</v>
       </c>
       <c r="H7">
-        <v>5916</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -460,7 +494,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
@@ -480,7 +514,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
@@ -491,7 +525,7 @@
         <v>6383</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
@@ -502,7 +536,7 @@
         <v>6334</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
@@ -513,7 +547,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
@@ -524,7 +558,7 @@
         <v>6267</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
@@ -535,7 +569,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
@@ -546,7 +580,7 @@
         <v>6164</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
@@ -557,7 +591,7 @@
         <v>6143</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>16</v>
       </c>
@@ -568,7 +602,7 @@
         <v>6096</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>17</v>
       </c>
@@ -579,7 +613,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>18</v>
       </c>
@@ -590,7 +624,7 @@
         <v>6030</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>19</v>
       </c>
@@ -601,7 +635,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>20</v>
       </c>
@@ -612,7 +646,7 @@
         <v>5945</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>21</v>
       </c>
@@ -623,7 +657,7 @@
         <v>5882</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>22</v>
       </c>
@@ -634,7 +668,7 @@
         <v>5852</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>23</v>
       </c>
@@ -645,7 +679,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>24</v>
       </c>
@@ -656,7 +690,7 @@
         <v>5341</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>25</v>
       </c>
@@ -669,5 +703,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Квантовая физика/5.2.2 Изучение спектров атомов водорода и дейтерия/Для градуировки.xlsx
+++ b/Квантовая физика/5.2.2 Изучение спектров атомов водорода и дейтерия/Для градуировки.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Глеб\Desktop\Лабы\Квантовая физика\5.2.2 Изучение спектров атомов водорода и дейтерия\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1953F92-4EB7-4A57-80E8-6302588784FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B74303A-C0A3-4D88-AA6E-464A4D560308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>К1</t>
   </si>
@@ -39,7 +48,16 @@
     <t>λ</t>
   </si>
   <si>
-    <t>Å</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1/λ</t>
   </si>
 </sst>
 </file>
@@ -365,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J26"/>
+  <dimension ref="B1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
@@ -386,8 +404,23 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -400,11 +433,30 @@
       <c r="H2">
         <v>6907</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <f>1/K2^2 - 1/L2^2</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="N2">
+        <v>6600</v>
+      </c>
+      <c r="O2">
+        <f>10000/N2</f>
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="P2">
+        <f>0.05*O2</f>
+        <v>7.575757575757576E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -417,8 +469,29 @@
       <c r="H3">
         <v>6234</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M4" si="0">1/K3^2 - 1/L3^2</f>
+        <v>0.1875</v>
+      </c>
+      <c r="N3">
+        <v>4850</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O4" si="1">10000/N3</f>
+        <v>2.0618556701030926</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="2">0.05*O3</f>
+        <v>0.10309278350515463</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -431,8 +504,29 @@
       <c r="H4">
         <v>5791</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="N4">
+        <v>4325</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>2.3121387283236996</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>0.11560693641618498</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -446,7 +540,7 @@
         <v>5770</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -460,7 +554,7 @@
         <v>5461</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -474,7 +568,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -494,7 +588,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
@@ -514,7 +608,7 @@
         <v>4047</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
@@ -525,7 +619,7 @@
         <v>6383</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
@@ -536,7 +630,7 @@
         <v>6334</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
@@ -547,7 +641,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
@@ -558,7 +652,7 @@
         <v>6267</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
@@ -569,7 +663,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
@@ -580,7 +674,7 @@
         <v>6164</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
